--- a/02Excel_FuncionesBasicas/03FuncionesFecha.xlsx
+++ b/02Excel_FuncionesBasicas/03FuncionesFecha.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nuno\Desktop\Excel-Career\02Excel_FuncionesBasicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2769DC-2A6C-49A4-A952-12A14D25A13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAEC82A-B812-4E0D-9DDA-C584BDE98EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{A1956476-34B6-4417-9B05-1981C0F63063}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="1" xr2:uid="{A1956476-34B6-4417-9B05-1981C0F63063}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dddd\,\ d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="dddd\,\ d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -72,11 +73,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,7 +395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A452C48D-E410-49A6-90F4-506B74B84AD8}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -413,7 +415,7 @@
       </c>
       <c r="D1" s="1">
         <f ca="1">TODAY()</f>
-        <v>45007</v>
+        <v>45019</v>
       </c>
       <c r="E1" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D1)</f>
@@ -429,7 +431,7 @@
       </c>
       <c r="D2" s="2">
         <f ca="1">NOW()</f>
-        <v>45007.06657210648</v>
+        <v>45019.713709953707</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D2)</f>
@@ -439,7 +441,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">A2-D1</f>
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -471,6 +473,215 @@
         <f ca="1">_xlfn.FORMULATEXT(A7)</f>
         <v>=AÑO(A1)</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814E0F03-D88F-419C-90F9-081A1EA276E2}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>44932</v>
+      </c>
+      <c r="C1" s="1">
+        <v>45079</v>
+      </c>
+      <c r="F1" s="1">
+        <f>EDATE(C1,5)</f>
+        <v>45232</v>
+      </c>
+      <c r="G1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(F1)</f>
+        <v>=FECHA.MES(C1;5)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45022</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45172</v>
+      </c>
+      <c r="F2" s="1">
+        <f>EOMONTH(C1,3)</f>
+        <v>45199</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G3" ca="1" si="0">_xlfn.FORMULATEXT(F2)</f>
+        <v>=FIN.MES(C1;3)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45023</v>
+      </c>
+      <c r="F3">
+        <f>YEARFRAC(C1,C7)</f>
+        <v>0.16388888888888889</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=FRAC.AÑO(C1;C7)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45063</v>
+      </c>
+      <c r="C5">
+        <f>NETWORKDAYS(C1,C2,A1:A12)</f>
+        <v>64</v>
+      </c>
+      <c r="D5" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C5)</f>
+        <v>=DIAS.LAB(C1;C2;A1:A12)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45132</v>
+      </c>
+      <c r="C6">
+        <f>NETWORKDAYS.INTL(C1,C2,11,A1:A12)</f>
+        <v>78</v>
+      </c>
+      <c r="D6" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C6)</f>
+        <v>=DIAS.LAB.INTL(C1;C2;11;A1:A12)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45153</v>
+      </c>
+      <c r="C7" s="1">
+        <f>WORKDAY(C1,40,A1:A12)</f>
+        <v>45138</v>
+      </c>
+      <c r="D7" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C7)</f>
+        <v>=DIA.LAB(C1;40;A1:A12)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45211</v>
+      </c>
+      <c r="C8" s="1">
+        <f>WORKDAY.INTL(C1,15,11,A1:A12)</f>
+        <v>45097</v>
+      </c>
+      <c r="D8" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C8)</f>
+        <v>=DIA.LAB.INTL(C1;15;11;A1:A12)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45231</v>
+      </c>
+      <c r="C9">
+        <f>DAYS360(C1,C2)</f>
+        <v>91</v>
+      </c>
+      <c r="D9" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C9)</f>
+        <v>=DIAS360(C1;C2)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45268</v>
+      </c>
+      <c r="C11">
+        <f>WEEKDAY(C1,2)</f>
+        <v>5</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D10:D12" ca="1" si="1">_xlfn.FORMULATEXT(C11)</f>
+        <v>=DIASEM(C1;2)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45285</v>
+      </c>
+      <c r="C12">
+        <f>WEEKNUM(C1)</f>
+        <v>22</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=NUM.DE.SEMANA(C1)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <f>DATE(2021,D14,C14)</f>
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ref="E15:E16" si="2">DATE(2021,D15,C15)</f>
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02Excel_FuncionesBasicas/03FuncionesFecha.xlsx
+++ b/02Excel_FuncionesBasicas/03FuncionesFecha.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nuno\Desktop\Excel-Career\02Excel_FuncionesBasicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAEC82A-B812-4E0D-9DDA-C584BDE98EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2769DC-2A6C-49A4-A952-12A14D25A13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="1" xr2:uid="{A1956476-34B6-4417-9B05-1981C0F63063}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{A1956476-34B6-4417-9B05-1981C0F63063}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dddd\,\ d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="dddd\,\ d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -73,12 +72,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,7 +393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A452C48D-E410-49A6-90F4-506B74B84AD8}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -415,7 +413,7 @@
       </c>
       <c r="D1" s="1">
         <f ca="1">TODAY()</f>
-        <v>45019</v>
+        <v>45007</v>
       </c>
       <c r="E1" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D1)</f>
@@ -431,7 +429,7 @@
       </c>
       <c r="D2" s="2">
         <f ca="1">NOW()</f>
-        <v>45019.713709953707</v>
+        <v>45007.06657210648</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D2)</f>
@@ -441,7 +439,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">A2-D1</f>
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -473,215 +471,6 @@
         <f ca="1">_xlfn.FORMULATEXT(A7)</f>
         <v>=AÑO(A1)</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814E0F03-D88F-419C-90F9-081A1EA276E2}">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>44932</v>
-      </c>
-      <c r="C1" s="1">
-        <v>45079</v>
-      </c>
-      <c r="F1" s="1">
-        <f>EDATE(C1,5)</f>
-        <v>45232</v>
-      </c>
-      <c r="G1" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(F1)</f>
-        <v>=FECHA.MES(C1;5)</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>45022</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45172</v>
-      </c>
-      <c r="F2" s="1">
-        <f>EOMONTH(C1,3)</f>
-        <v>45199</v>
-      </c>
-      <c r="G2" t="str">
-        <f t="shared" ref="G2:G3" ca="1" si="0">_xlfn.FORMULATEXT(F2)</f>
-        <v>=FIN.MES(C1;3)</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45023</v>
-      </c>
-      <c r="F3">
-        <f>YEARFRAC(C1,C7)</f>
-        <v>0.16388888888888889</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=FRAC.AÑO(C1;C7)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45063</v>
-      </c>
-      <c r="C5">
-        <f>NETWORKDAYS(C1,C2,A1:A12)</f>
-        <v>64</v>
-      </c>
-      <c r="D5" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(C5)</f>
-        <v>=DIAS.LAB(C1;C2;A1:A12)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>45132</v>
-      </c>
-      <c r="C6">
-        <f>NETWORKDAYS.INTL(C1,C2,11,A1:A12)</f>
-        <v>78</v>
-      </c>
-      <c r="D6" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(C6)</f>
-        <v>=DIAS.LAB.INTL(C1;C2;11;A1:A12)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>45153</v>
-      </c>
-      <c r="C7" s="1">
-        <f>WORKDAY(C1,40,A1:A12)</f>
-        <v>45138</v>
-      </c>
-      <c r="D7" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(C7)</f>
-        <v>=DIA.LAB(C1;40;A1:A12)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45211</v>
-      </c>
-      <c r="C8" s="1">
-        <f>WORKDAY.INTL(C1,15,11,A1:A12)</f>
-        <v>45097</v>
-      </c>
-      <c r="D8" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(C8)</f>
-        <v>=DIA.LAB.INTL(C1;15;11;A1:A12)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45231</v>
-      </c>
-      <c r="C9">
-        <f>DAYS360(C1,C2)</f>
-        <v>91</v>
-      </c>
-      <c r="D9" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(C9)</f>
-        <v>=DIAS360(C1;C2)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45268</v>
-      </c>
-      <c r="C11">
-        <f>WEEKDAY(C1,2)</f>
-        <v>5</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" ref="D10:D12" ca="1" si="1">_xlfn.FORMULATEXT(C11)</f>
-        <v>=DIASEM(C1;2)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>45285</v>
-      </c>
-      <c r="C12">
-        <f>WEEKNUM(C1)</f>
-        <v>22</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=NUM.DE.SEMANA(C1)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1">
-        <f>DATE(2021,D14,C14)</f>
-        <v>44317</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" ref="E15:E16" si="2">DATE(2021,D15,C15)</f>
-        <v>44230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="2"/>
-        <v>44444</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
